--- a/Estudo2/Planilhas/dados_populacionais.xlsx
+++ b/Estudo2/Planilhas/dados_populacionais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\Documents\GitHub\Modelos-Populacionais\Novos-Estudos\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\Documents\GitHub\Modelos-Populacionais\Estudo2\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{902E04C7-3918-4CC5-AC78-9039AFEA3E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED239F-3572-475B-905B-9F8586951366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{599D6297-A9B3-4D85-B6C7-37B1779701FD}"/>
   </bookViews>
@@ -37,8 +37,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0172B-1ED0-405A-9AC4-F13D4CF3FDA7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,27 +412,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2">
-        <v>146114</v>
+        <v>9138670</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B3">
-        <v>188216</v>
+        <v>10187798</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B4">
-        <v>198842</v>
-      </c>
+        <v>10693929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
